--- a/客户异常处理跟踪.xlsx
+++ b/客户异常处理跟踪.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,26 @@
   </si>
   <si>
     <t>已关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹海国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app断网状态下设置参数崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kerry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -510,6 +530,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>43310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
